--- a/Code/Results/Cases/Case_3_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.95763200607346</v>
+        <v>18.04684866123356</v>
       </c>
       <c r="C2">
-        <v>20.08494335946678</v>
+        <v>14.85045676676299</v>
       </c>
       <c r="D2">
-        <v>3.842882022328854</v>
+        <v>7.345983262333876</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.84426362026441</v>
+        <v>43.20575197441379</v>
       </c>
       <c r="G2">
-        <v>2.079717331774027</v>
+        <v>3.697102544084863</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.78880276071305</v>
+        <v>27.65027656396731</v>
       </c>
       <c r="J2">
-        <v>6.13570678864773</v>
+        <v>10.56280034462994</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.21959624940368</v>
+        <v>20.16515310504352</v>
       </c>
       <c r="N2">
-        <v>12.60320194622274</v>
+        <v>19.51121820688275</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.32330721926171</v>
+        <v>17.60516066014521</v>
       </c>
       <c r="C3">
-        <v>18.65041993457258</v>
+        <v>14.41943652876106</v>
       </c>
       <c r="D3">
-        <v>3.794011102030316</v>
+        <v>7.348090612391682</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.42869195920108</v>
+        <v>43.06383683378426</v>
       </c>
       <c r="G3">
-        <v>2.090714124261113</v>
+        <v>3.700997358722977</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.37031251474096</v>
+        <v>27.66606152737132</v>
       </c>
       <c r="J3">
-        <v>6.146210350759608</v>
+        <v>10.58654027939648</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.34711917286455</v>
+        <v>20.04308826280217</v>
       </c>
       <c r="N3">
-        <v>12.87502985913827</v>
+        <v>19.58319746836055</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.26896391982458</v>
+        <v>17.33361034092493</v>
       </c>
       <c r="C4">
-        <v>17.76244889874356</v>
+        <v>14.15298478268926</v>
       </c>
       <c r="D4">
-        <v>3.764575832231948</v>
+        <v>7.349816688739533</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.57477020617261</v>
+        <v>42.98892397435331</v>
       </c>
       <c r="G4">
-        <v>2.097615920713942</v>
+        <v>3.703512157776867</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.13361176772126</v>
+        <v>27.68275153842992</v>
       </c>
       <c r="J4">
-        <v>6.155709193399503</v>
+        <v>10.60238459007639</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.80116621036119</v>
+        <v>19.97258538269163</v>
       </c>
       <c r="N4">
-        <v>13.04484605643522</v>
+        <v>19.62937420225289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82636509021477</v>
+        <v>17.22304223857712</v>
       </c>
       <c r="C5">
-        <v>17.39489391111715</v>
+        <v>14.04413673013127</v>
       </c>
       <c r="D5">
-        <v>3.752723154369932</v>
+        <v>7.350629178820574</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.23086283225668</v>
+        <v>42.96148297509298</v>
       </c>
       <c r="G5">
-        <v>2.100468839532522</v>
+        <v>3.704568100674881</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.0420883777043</v>
+        <v>27.69130589235916</v>
       </c>
       <c r="J5">
-        <v>6.160319452486408</v>
+        <v>10.60916022875889</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.57633849961759</v>
+        <v>19.94499572360947</v>
       </c>
       <c r="N5">
-        <v>13.11481811549014</v>
+        <v>19.6486910981575</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.75208586830868</v>
+        <v>17.20469332994862</v>
       </c>
       <c r="C6">
-        <v>17.33332627011037</v>
+        <v>14.02605212143474</v>
       </c>
       <c r="D6">
-        <v>3.750763607848288</v>
+        <v>7.350770694115977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.17401093156479</v>
+        <v>42.95711313835706</v>
       </c>
       <c r="G6">
-        <v>2.10094507926316</v>
+        <v>3.70474532360838</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.02718420850307</v>
+        <v>27.69283200376372</v>
       </c>
       <c r="J6">
-        <v>6.161128867950223</v>
+        <v>10.61030458626776</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.53887197706891</v>
+        <v>19.94048402118224</v>
       </c>
       <c r="N6">
-        <v>13.12648455850317</v>
+        <v>19.65192886155184</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.26304748387428</v>
+        <v>17.33211857179671</v>
       </c>
       <c r="C7">
-        <v>17.75752785516285</v>
+        <v>14.15151764630714</v>
       </c>
       <c r="D7">
-        <v>3.764415407228959</v>
+        <v>7.349827203938617</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.57011531810015</v>
+        <v>42.98854138414158</v>
       </c>
       <c r="G7">
-        <v>2.097654229216954</v>
+        <v>3.703526272342302</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.13235768839849</v>
+        <v>27.68285981707391</v>
       </c>
       <c r="J7">
-        <v>6.15576841026206</v>
+        <v>10.60247467711348</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.79814326830307</v>
+        <v>19.97220865074582</v>
       </c>
       <c r="N7">
-        <v>13.04578655435993</v>
+        <v>19.62963269252261</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.404572629185</v>
+        <v>17.8947334655343</v>
       </c>
       <c r="C8">
-        <v>19.59876483425413</v>
+        <v>14.70232429591602</v>
       </c>
       <c r="D8">
-        <v>3.825911551859983</v>
+        <v>7.346620441415899</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.35314087896289</v>
+        <v>43.15429154221732</v>
       </c>
       <c r="G8">
-        <v>2.083479666457849</v>
+        <v>3.698419943838237</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.64020970304597</v>
+        <v>27.65426303694614</v>
       </c>
       <c r="J8">
-        <v>6.138678445355578</v>
+        <v>10.57072280139529</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.92101477508463</v>
+        <v>20.12215684784598</v>
       </c>
       <c r="N8">
-        <v>12.69634697803729</v>
+        <v>19.53562626096285</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.2086987956114</v>
+        <v>18.98768026865707</v>
       </c>
       <c r="C9">
-        <v>22.95724306092076</v>
+        <v>15.76046526480967</v>
       </c>
       <c r="D9">
-        <v>3.951171408876691</v>
+        <v>7.343742394517965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.96279766070157</v>
+        <v>43.57557040533569</v>
       </c>
       <c r="G9">
-        <v>2.056735181896369</v>
+        <v>3.689379827989034</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.80379300248262</v>
+        <v>27.65397230142385</v>
       </c>
       <c r="J9">
-        <v>6.130687534505552</v>
+        <v>10.51851206526602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.03429056037834</v>
+        <v>20.45038359277467</v>
       </c>
       <c r="N9">
-        <v>12.0324346846623</v>
+        <v>19.36693800732534</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.7755965938144</v>
+        <v>19.77483454222781</v>
       </c>
       <c r="C10">
-        <v>25.24182813212195</v>
+        <v>16.51500827006473</v>
       </c>
       <c r="D10">
-        <v>4.046361384979612</v>
+        <v>7.34368261423059</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.67853738707598</v>
+        <v>43.94250301729141</v>
       </c>
       <c r="G10">
-        <v>2.037514821259458</v>
+        <v>3.683323775956905</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.77082296789387</v>
+        <v>27.68807233206202</v>
       </c>
       <c r="J10">
-        <v>6.142367359625445</v>
+        <v>10.4862751459793</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.78902099188092</v>
+        <v>20.71079344996259</v>
       </c>
       <c r="N10">
-        <v>11.55516604207932</v>
+        <v>19.25245994147812</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.89722765097926</v>
+        <v>20.1276645677153</v>
       </c>
       <c r="C11">
-        <v>26.24468759621717</v>
+        <v>16.85154683329043</v>
       </c>
       <c r="D11">
-        <v>4.090469027719267</v>
+        <v>7.344096371725084</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.92848609028338</v>
+        <v>44.12155163475432</v>
       </c>
       <c r="G11">
-        <v>2.028809442989539</v>
+        <v>3.680694263642445</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.23748868555544</v>
+        <v>27.71108138368355</v>
       </c>
       <c r="J11">
-        <v>6.151980965251132</v>
+        <v>10.47293767161396</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.60156329929087</v>
+        <v>20.83307829697405</v>
       </c>
       <c r="N11">
-        <v>11.33978927047668</v>
+        <v>19.2024156831249</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.31565970680722</v>
+        <v>20.26037876210178</v>
       </c>
       <c r="C12">
-        <v>26.61953093488435</v>
+        <v>16.97789156397716</v>
       </c>
       <c r="D12">
-        <v>4.10730094972792</v>
+        <v>7.344316003729155</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.40408880148264</v>
+        <v>44.19106184962479</v>
       </c>
       <c r="G12">
-        <v>2.025513158790663</v>
+        <v>3.679716444136993</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.41827862966708</v>
+        <v>27.72087424200598</v>
       </c>
       <c r="J12">
-        <v>6.156285222270703</v>
+        <v>10.46807787240232</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.90473895674226</v>
+        <v>20.87990165937387</v>
       </c>
       <c r="N12">
-        <v>11.25843977868109</v>
+        <v>19.18375613590711</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.22581778612586</v>
+        <v>20.23183829884211</v>
       </c>
       <c r="C13">
-        <v>26.53901485131211</v>
+        <v>16.95073162038572</v>
       </c>
       <c r="D13">
-        <v>4.103669884493122</v>
+        <v>7.344265909615714</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.30155390389563</v>
+        <v>44.17601620528161</v>
       </c>
       <c r="G13">
-        <v>2.026223152032331</v>
+        <v>3.679926239903497</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.37915710713538</v>
+        <v>27.7187171314555</v>
       </c>
       <c r="J13">
-        <v>6.155327927979464</v>
+        <v>10.46911603138601</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.83964132034857</v>
+        <v>20.8697949634142</v>
       </c>
       <c r="N13">
-        <v>11.27595116343919</v>
+        <v>19.18776187301284</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.93177670243208</v>
+        <v>20.13860174213265</v>
       </c>
       <c r="C14">
-        <v>26.27562274915445</v>
+        <v>16.86196394257539</v>
       </c>
       <c r="D14">
-        <v>4.091851116720882</v>
+        <v>7.344113181983758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.96756715828639</v>
+        <v>44.12723626015403</v>
       </c>
       <c r="G14">
-        <v>2.028538283043773</v>
+        <v>3.680613459362315</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.25227931485857</v>
+        <v>27.71186540004997</v>
       </c>
       <c r="J14">
-        <v>6.152321498968506</v>
+        <v>10.47253402909527</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.62659475633492</v>
+        <v>20.8369203191825</v>
       </c>
       <c r="N14">
-        <v>11.33309263117544</v>
+        <v>19.2008747227109</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.75085707466794</v>
+        <v>20.08137115105964</v>
       </c>
       <c r="C15">
-        <v>26.11365730007347</v>
+        <v>16.80744489348025</v>
       </c>
       <c r="D15">
-        <v>4.084629089795458</v>
+        <v>7.344027816337858</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.76329426961006</v>
+        <v>44.09757849877683</v>
       </c>
       <c r="G15">
-        <v>2.029956233743525</v>
+        <v>3.681036731397863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.17510084725932</v>
+        <v>27.707809178003</v>
       </c>
       <c r="J15">
-        <v>6.150567846513172</v>
+        <v>10.47465249949845</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.49551715237897</v>
+        <v>20.81684995028019</v>
       </c>
       <c r="N15">
-        <v>11.36811949782874</v>
+        <v>19.20894460201889</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.70139476502558</v>
+        <v>19.75165841708903</v>
       </c>
       <c r="C16">
-        <v>25.17558234784316</v>
+        <v>16.49286826892359</v>
       </c>
       <c r="D16">
-        <v>4.043496118465418</v>
+        <v>7.343664408289159</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.59715592717772</v>
+        <v>43.93104285885539</v>
       </c>
       <c r="G16">
-        <v>2.038084073539836</v>
+        <v>3.68349813462857</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.74088224359834</v>
+        <v>27.68671966874314</v>
       </c>
       <c r="J16">
-        <v>6.141829400676592</v>
+        <v>10.48717348527778</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.73527347739105</v>
+        <v>20.70287597784874</v>
       </c>
       <c r="N16">
-        <v>11.56927281434982</v>
+        <v>19.25577125143469</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.04599981170369</v>
+        <v>19.54794266158157</v>
       </c>
       <c r="C17">
-        <v>24.59098981828616</v>
+        <v>16.29807096765841</v>
       </c>
       <c r="D17">
-        <v>4.018477046879133</v>
+        <v>7.343554083533483</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.88558658278846</v>
+        <v>43.83196084469519</v>
       </c>
       <c r="G17">
-        <v>2.043076486807192</v>
+        <v>3.685040165946479</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.48150697226382</v>
+        <v>27.67570365687989</v>
       </c>
       <c r="J17">
-        <v>6.137600981501211</v>
+        <v>10.49519461540513</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.26057414079546</v>
+        <v>20.63391264498476</v>
       </c>
       <c r="N17">
-        <v>11.69308868462465</v>
+        <v>19.2850176185898</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.66467691044202</v>
+        <v>19.43028424348766</v>
       </c>
       <c r="C18">
-        <v>24.25129887421538</v>
+        <v>16.18540444423022</v>
       </c>
       <c r="D18">
-        <v>4.004161512223246</v>
+        <v>7.343532159751278</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.47766203923366</v>
+        <v>43.77611550740738</v>
       </c>
       <c r="G18">
-        <v>2.045951923541277</v>
+        <v>3.685938913184761</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.33482460433794</v>
+        <v>27.67007312900538</v>
       </c>
       <c r="J18">
-        <v>6.135570711284861</v>
+        <v>10.49993308822525</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.98440729484982</v>
+        <v>20.59460865044684</v>
       </c>
       <c r="N18">
-        <v>11.76446993712828</v>
+        <v>19.30203071963318</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.53481014116535</v>
+        <v>19.39036800475938</v>
       </c>
       <c r="C19">
-        <v>24.13568410223631</v>
+        <v>16.14715446319463</v>
       </c>
       <c r="D19">
-        <v>3.999327010464123</v>
+        <v>7.343531883780996</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.3397742205216</v>
+        <v>43.75740475512049</v>
       </c>
       <c r="G19">
-        <v>2.046926320446757</v>
+        <v>3.686245245719326</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.28558411019941</v>
+        <v>27.66828784271399</v>
       </c>
       <c r="J19">
-        <v>6.134950996569989</v>
+        <v>10.50155891209593</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.89035698132639</v>
+        <v>20.58136413832349</v>
       </c>
       <c r="N19">
-        <v>11.78866812592724</v>
+        <v>19.30782396494943</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.11621648280738</v>
+        <v>19.56967995010076</v>
       </c>
       <c r="C20">
-        <v>24.65357547459801</v>
+        <v>16.31887306849269</v>
       </c>
       <c r="D20">
-        <v>4.021132545325791</v>
+        <v>7.34356153267739</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.96119354787906</v>
+        <v>43.84239014115928</v>
       </c>
       <c r="G20">
-        <v>2.04254466449549</v>
+        <v>3.684874792457936</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.50885729216974</v>
+        <v>27.67680328781725</v>
       </c>
       <c r="J20">
-        <v>6.138009204257817</v>
+        <v>10.49432782287053</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.31142920304627</v>
+        <v>20.64121669135171</v>
       </c>
       <c r="N20">
-        <v>11.67989143266412</v>
+        <v>19.28188449565321</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.01831207445008</v>
+        <v>20.16601292723828</v>
       </c>
       <c r="C21">
-        <v>26.35311808678994</v>
+        <v>16.88806786250046</v>
       </c>
       <c r="D21">
-        <v>4.095318938122915</v>
+        <v>7.344156336985027</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.06560338682602</v>
+        <v>44.14151804901982</v>
       </c>
       <c r="G21">
-        <v>2.027858311182261</v>
+        <v>3.68041112092626</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.28943385567376</v>
+        <v>27.71384860421147</v>
       </c>
       <c r="J21">
-        <v>6.153186159860844</v>
+        <v>10.47152490207111</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.68929217986651</v>
+        <v>20.8465626423981</v>
       </c>
       <c r="N21">
-        <v>11.31630343226547</v>
+        <v>19.19701526866293</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.224868490584</v>
+        <v>20.55047765196444</v>
       </c>
       <c r="C22">
-        <v>27.43538656221072</v>
+        <v>17.25363442481862</v>
       </c>
       <c r="D22">
-        <v>4.144567091526075</v>
+        <v>7.344911787592815</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.45438655929058</v>
+        <v>44.34695430857133</v>
       </c>
       <c r="G22">
-        <v>2.018258451259579</v>
+        <v>3.677598250437745</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.82346416997066</v>
+        <v>27.74435402793238</v>
       </c>
       <c r="J22">
-        <v>6.166998851388756</v>
+        <v>10.45773405751107</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.56361532923016</v>
+        <v>20.98376415900585</v>
       </c>
       <c r="N22">
-        <v>11.07987973973848</v>
+        <v>19.1432447268354</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.58413662679341</v>
+        <v>20.3458075430743</v>
       </c>
       <c r="C23">
-        <v>26.86024748717228</v>
+        <v>17.05915347236055</v>
       </c>
       <c r="D23">
-        <v>4.118207055302087</v>
+        <v>7.344475187422147</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.7118457195437</v>
+        <v>44.2364123777302</v>
       </c>
       <c r="G23">
-        <v>2.023384128312992</v>
+        <v>3.67909001790654</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.53617256019839</v>
+        <v>27.72749646836585</v>
       </c>
       <c r="J23">
-        <v>6.159254229213382</v>
+        <v>10.46499274106053</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.09928036190251</v>
+        <v>20.91027412003622</v>
       </c>
       <c r="N23">
-        <v>11.20596602593211</v>
+        <v>19.17178822303286</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.08448565183451</v>
+        <v>19.55985419170499</v>
       </c>
       <c r="C24">
-        <v>24.62529173879177</v>
+        <v>16.30947053100475</v>
       </c>
       <c r="D24">
-        <v>4.019931782813146</v>
+        <v>7.343558035611109</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.92700801887027</v>
+        <v>43.83767157051124</v>
       </c>
       <c r="G24">
-        <v>2.042785084682083</v>
+        <v>3.684949519763277</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.49648464172915</v>
+        <v>27.67630395599055</v>
       </c>
       <c r="J24">
-        <v>6.137823402019003</v>
+        <v>10.49471930413851</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.28844778878141</v>
+        <v>20.63791345818767</v>
       </c>
       <c r="N24">
-        <v>11.68585729089276</v>
+        <v>19.28330036068479</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.22066178475375</v>
+        <v>18.69413542188243</v>
       </c>
       <c r="C25">
-        <v>22.08177501369435</v>
+        <v>15.47758894616669</v>
       </c>
       <c r="D25">
-        <v>3.916760409856214</v>
+        <v>7.344158374057313</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.97500175880914</v>
+        <v>43.45141380965337</v>
       </c>
       <c r="G25">
-        <v>2.063878168849844</v>
+        <v>3.69172200710811</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.47006317904396</v>
+        <v>27.64804329510254</v>
       </c>
       <c r="J25">
-        <v>6.129921226926294</v>
+        <v>10.53156079121939</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.47290131466582</v>
+        <v>20.35808709529748</v>
       </c>
       <c r="N25">
-        <v>12.21001279063987</v>
+        <v>19.41090555064747</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04684866123356</v>
+        <v>22.95763200607363</v>
       </c>
       <c r="C2">
-        <v>14.85045676676299</v>
+        <v>20.08494335946686</v>
       </c>
       <c r="D2">
-        <v>7.345983262333876</v>
+        <v>3.842882022328954</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.20575197441379</v>
+        <v>36.84426362026417</v>
       </c>
       <c r="G2">
-        <v>3.697102544084863</v>
+        <v>2.079717331774028</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.65027656396731</v>
+        <v>20.7888027607128</v>
       </c>
       <c r="J2">
-        <v>10.56280034462994</v>
+        <v>6.135706788647737</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.16515310504352</v>
+        <v>17.21959624940363</v>
       </c>
       <c r="N2">
-        <v>19.51121820688275</v>
+        <v>12.60320194622255</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.60516066014521</v>
+        <v>21.3233072192617</v>
       </c>
       <c r="C3">
-        <v>14.41943652876106</v>
+        <v>18.6504199345727</v>
       </c>
       <c r="D3">
-        <v>7.348090612391682</v>
+        <v>3.794011102030292</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.06383683378426</v>
+        <v>35.42869195920102</v>
       </c>
       <c r="G3">
-        <v>3.700997358722977</v>
+        <v>2.090714124261244</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.66606152737132</v>
+        <v>20.37031251474093</v>
       </c>
       <c r="J3">
-        <v>10.58654027939648</v>
+        <v>6.146210350759604</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.04308826280217</v>
+        <v>16.34711917286453</v>
       </c>
       <c r="N3">
-        <v>19.58319746836055</v>
+        <v>12.87502985913815</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.33361034092493</v>
+        <v>20.26896391982465</v>
       </c>
       <c r="C4">
-        <v>14.15298478268926</v>
+        <v>17.76244889874356</v>
       </c>
       <c r="D4">
-        <v>7.349816688739533</v>
+        <v>3.764575832231815</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.98892397435331</v>
+        <v>34.57477020617247</v>
       </c>
       <c r="G4">
-        <v>3.703512157776867</v>
+        <v>2.09761592071394</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.68275153842992</v>
+        <v>20.13361176772118</v>
       </c>
       <c r="J4">
-        <v>10.60238459007639</v>
+        <v>6.155709193399484</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.97258538269163</v>
+        <v>15.80116621036113</v>
       </c>
       <c r="N4">
-        <v>19.62937420225289</v>
+        <v>13.04484605643516</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.22304223857712</v>
+        <v>19.82636509021481</v>
       </c>
       <c r="C5">
-        <v>14.04413673013127</v>
+        <v>17.39489391111712</v>
       </c>
       <c r="D5">
-        <v>7.350629178820574</v>
+        <v>3.752723154369932</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.96148297509298</v>
+        <v>34.23086283225676</v>
       </c>
       <c r="G5">
-        <v>3.704568100674881</v>
+        <v>2.100468839532257</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.69130589235916</v>
+        <v>20.0420883777043</v>
       </c>
       <c r="J5">
-        <v>10.60916022875889</v>
+        <v>6.160319452486469</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.94499572360947</v>
+        <v>15.57633849961764</v>
       </c>
       <c r="N5">
-        <v>19.6486910981575</v>
+        <v>13.11481811549008</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.20469332994862</v>
+        <v>19.75208586830873</v>
       </c>
       <c r="C6">
-        <v>14.02605212143474</v>
+        <v>17.33332627011035</v>
       </c>
       <c r="D6">
-        <v>7.350770694115977</v>
+        <v>3.750763607848035</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.95711313835706</v>
+        <v>34.17401093156485</v>
       </c>
       <c r="G6">
-        <v>3.70474532360838</v>
+        <v>2.100945079262896</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.69283200376372</v>
+        <v>20.02718420850311</v>
       </c>
       <c r="J6">
-        <v>10.61030458626776</v>
+        <v>6.161128867950196</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.94048402118224</v>
+        <v>15.5388719770689</v>
       </c>
       <c r="N6">
-        <v>19.65192886155184</v>
+        <v>13.12648455850318</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.33211857179671</v>
+        <v>20.26304748387432</v>
       </c>
       <c r="C7">
-        <v>14.15151764630714</v>
+        <v>17.75752785516284</v>
       </c>
       <c r="D7">
-        <v>7.349827203938617</v>
+        <v>3.764415407229118</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.98854138414158</v>
+        <v>34.57011531810014</v>
       </c>
       <c r="G7">
-        <v>3.703526272342302</v>
+        <v>2.097654229217216</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.68285981707391</v>
+        <v>20.13235768839849</v>
       </c>
       <c r="J7">
-        <v>10.60247467711348</v>
+        <v>6.155768410262087</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.97220865074582</v>
+        <v>15.79814326830305</v>
       </c>
       <c r="N7">
-        <v>19.62963269252261</v>
+        <v>13.04578655435993</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.8947334655343</v>
+        <v>22.40457262918503</v>
       </c>
       <c r="C8">
-        <v>14.70232429591602</v>
+        <v>19.59876483425421</v>
       </c>
       <c r="D8">
-        <v>7.346620441415899</v>
+        <v>3.825911551860034</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.15429154221732</v>
+        <v>36.35314087896295</v>
       </c>
       <c r="G8">
-        <v>3.698419943838237</v>
+        <v>2.083479666457981</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.65426303694614</v>
+        <v>20.640209703046</v>
       </c>
       <c r="J8">
-        <v>10.57072280139529</v>
+        <v>6.13867844535553</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.12215684784598</v>
+        <v>16.92101477508461</v>
       </c>
       <c r="N8">
-        <v>19.53562626096285</v>
+        <v>12.69634697803729</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.98768026865707</v>
+        <v>26.2086987956114</v>
       </c>
       <c r="C9">
-        <v>15.76046526480967</v>
+        <v>22.95724306092077</v>
       </c>
       <c r="D9">
-        <v>7.343742394517965</v>
+        <v>3.951171408876517</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.57557040533569</v>
+        <v>39.96279766070167</v>
       </c>
       <c r="G9">
-        <v>3.689379827989034</v>
+        <v>2.05673518189637</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.65397230142385</v>
+        <v>21.80379300248277</v>
       </c>
       <c r="J9">
-        <v>10.51851206526602</v>
+        <v>6.130687534505602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.45038359277467</v>
+        <v>19.03429056037834</v>
       </c>
       <c r="N9">
-        <v>19.36693800732534</v>
+        <v>12.03243468466241</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77483454222781</v>
+        <v>28.7755965938144</v>
       </c>
       <c r="C10">
-        <v>16.51500827006473</v>
+        <v>25.24182813212193</v>
       </c>
       <c r="D10">
-        <v>7.34368261423059</v>
+        <v>4.046361384979607</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.94250301729141</v>
+        <v>42.67853738707598</v>
       </c>
       <c r="G10">
-        <v>3.683323775956905</v>
+        <v>2.037514821259456</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.68807233206202</v>
+        <v>22.77082296789387</v>
       </c>
       <c r="J10">
-        <v>10.4862751459793</v>
+        <v>6.142367359625476</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.71079344996259</v>
+        <v>20.78902099188092</v>
       </c>
       <c r="N10">
-        <v>19.25245994147812</v>
+        <v>11.55516604207932</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.1276645677153</v>
+        <v>29.89722765097932</v>
       </c>
       <c r="C11">
-        <v>16.85154683329043</v>
+        <v>26.24468759621713</v>
       </c>
       <c r="D11">
-        <v>7.344096371725084</v>
+        <v>4.090469027719113</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.12155163475432</v>
+        <v>43.92848609028349</v>
       </c>
       <c r="G11">
-        <v>3.680694263642445</v>
+        <v>2.028809442989406</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.71108138368355</v>
+        <v>23.23748868555551</v>
       </c>
       <c r="J11">
-        <v>10.47293767161396</v>
+        <v>6.151980965251103</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.83307829697405</v>
+        <v>21.60156329929089</v>
       </c>
       <c r="N11">
-        <v>19.2024156831249</v>
+        <v>11.33978927047676</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.26037876210178</v>
+        <v>30.3156597068073</v>
       </c>
       <c r="C12">
-        <v>16.97789156397716</v>
+        <v>26.61953093488432</v>
       </c>
       <c r="D12">
-        <v>7.344316003729155</v>
+        <v>4.107300949727803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.19106184962479</v>
+        <v>44.40408880148266</v>
       </c>
       <c r="G12">
-        <v>3.679716444136993</v>
+        <v>2.025513158790665</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.72087424200598</v>
+        <v>23.41827862966709</v>
       </c>
       <c r="J12">
-        <v>10.46807787240232</v>
+        <v>6.156285222270679</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.87990165937387</v>
+        <v>21.9047389567423</v>
       </c>
       <c r="N12">
-        <v>19.18375613590711</v>
+        <v>11.25843977868106</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.23183829884211</v>
+        <v>30.225817786126</v>
       </c>
       <c r="C13">
-        <v>16.95073162038572</v>
+        <v>26.53901485131212</v>
       </c>
       <c r="D13">
-        <v>7.344265909615714</v>
+        <v>4.103669884493063</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.17601620528161</v>
+        <v>44.30155390389568</v>
       </c>
       <c r="G13">
-        <v>3.679926239903497</v>
+        <v>2.026223152032329</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.7187171314555</v>
+        <v>23.37915710713539</v>
       </c>
       <c r="J13">
-        <v>10.46911603138601</v>
+        <v>6.155327927979522</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.8697949634142</v>
+        <v>21.83964132034864</v>
       </c>
       <c r="N13">
-        <v>19.18776187301284</v>
+        <v>11.27595116343912</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13860174213265</v>
+        <v>29.93177670243207</v>
       </c>
       <c r="C14">
-        <v>16.86196394257539</v>
+        <v>26.27562274915442</v>
       </c>
       <c r="D14">
-        <v>7.344113181983758</v>
+        <v>4.091851116720887</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.12723626015403</v>
+        <v>43.9675671582864</v>
       </c>
       <c r="G14">
-        <v>3.680613459362315</v>
+        <v>2.0285382830439</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.71186540004997</v>
+        <v>23.25227931485857</v>
       </c>
       <c r="J14">
-        <v>10.47253402909527</v>
+        <v>6.15232149896853</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.8369203191825</v>
+        <v>21.62659475633492</v>
       </c>
       <c r="N14">
-        <v>19.2008747227109</v>
+        <v>11.33309263117541</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.08137115105964</v>
+        <v>29.75085707466801</v>
       </c>
       <c r="C15">
-        <v>16.80744489348025</v>
+        <v>26.11365730007343</v>
       </c>
       <c r="D15">
-        <v>7.344027816337858</v>
+        <v>4.084629089795349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.09757849877683</v>
+        <v>43.76329426961011</v>
       </c>
       <c r="G15">
-        <v>3.681036731397863</v>
+        <v>2.029956233743134</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.707809178003</v>
+        <v>23.17510084725935</v>
       </c>
       <c r="J15">
-        <v>10.47465249949845</v>
+        <v>6.150567846513171</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.81684995028019</v>
+        <v>21.495517152379</v>
       </c>
       <c r="N15">
-        <v>19.20894460201889</v>
+        <v>11.36811949782872</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.75165841708903</v>
+        <v>28.70139476502558</v>
       </c>
       <c r="C16">
-        <v>16.49286826892359</v>
+        <v>25.17558234784327</v>
       </c>
       <c r="D16">
-        <v>7.343664408289159</v>
+        <v>4.043496118465514</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.93104285885539</v>
+        <v>42.59715592717777</v>
       </c>
       <c r="G16">
-        <v>3.68349813462857</v>
+        <v>2.038084073539701</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.68671966874314</v>
+        <v>22.74088224359839</v>
       </c>
       <c r="J16">
-        <v>10.48717348527778</v>
+        <v>6.141829400676491</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.70287597784874</v>
+        <v>20.7352734773911</v>
       </c>
       <c r="N16">
-        <v>19.25577125143469</v>
+        <v>11.5692728143498</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.54794266158157</v>
+        <v>28.04599981170385</v>
       </c>
       <c r="C17">
-        <v>16.29807096765841</v>
+        <v>24.59098981828618</v>
       </c>
       <c r="D17">
-        <v>7.343554083533483</v>
+        <v>4.018477046879092</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.83196084469519</v>
+        <v>41.8855865827884</v>
       </c>
       <c r="G17">
-        <v>3.685040165946479</v>
+        <v>2.043076486806928</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.67570365687989</v>
+        <v>22.48150697226367</v>
       </c>
       <c r="J17">
-        <v>10.49519461540513</v>
+        <v>6.137600981501216</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.63391264498476</v>
+        <v>20.26057414079558</v>
       </c>
       <c r="N17">
-        <v>19.2850176185898</v>
+        <v>11.69308868462446</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.43028424348766</v>
+        <v>27.66467691044206</v>
       </c>
       <c r="C18">
-        <v>16.18540444423022</v>
+        <v>24.2512988742154</v>
       </c>
       <c r="D18">
-        <v>7.343532159751278</v>
+        <v>4.004161512223255</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.77611550740738</v>
+        <v>41.47766203923369</v>
       </c>
       <c r="G18">
-        <v>3.685938913184761</v>
+        <v>2.045951923541277</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.67007312900538</v>
+        <v>22.33482460433793</v>
       </c>
       <c r="J18">
-        <v>10.49993308822525</v>
+        <v>6.135570711284867</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.59460865044684</v>
+        <v>19.98440729484983</v>
       </c>
       <c r="N18">
-        <v>19.30203071963318</v>
+        <v>11.76446993712822</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.39036800475938</v>
+        <v>27.53481014116535</v>
       </c>
       <c r="C19">
-        <v>16.14715446319463</v>
+        <v>24.13568410223635</v>
       </c>
       <c r="D19">
-        <v>7.343531883780996</v>
+        <v>3.999327010464234</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.75740475512049</v>
+        <v>41.33977422052162</v>
       </c>
       <c r="G19">
-        <v>3.686245245719326</v>
+        <v>2.046926320446888</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.66828784271399</v>
+        <v>22.28558411019943</v>
       </c>
       <c r="J19">
-        <v>10.50155891209593</v>
+        <v>6.134950996570028</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.58136413832349</v>
+        <v>19.89035698132638</v>
       </c>
       <c r="N19">
-        <v>19.30782396494943</v>
+        <v>11.78866812592724</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.56967995010076</v>
+        <v>28.11621648280746</v>
       </c>
       <c r="C20">
-        <v>16.31887306849269</v>
+        <v>24.65357547459806</v>
       </c>
       <c r="D20">
-        <v>7.34356153267739</v>
+        <v>4.021132545325805</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.84239014115928</v>
+        <v>41.96119354787909</v>
       </c>
       <c r="G20">
-        <v>3.684874792457936</v>
+        <v>2.042544664495494</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.67680328781725</v>
+        <v>22.50885729216972</v>
       </c>
       <c r="J20">
-        <v>10.49432782287053</v>
+        <v>6.138009204257785</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.64121669135171</v>
+        <v>20.31142920304634</v>
       </c>
       <c r="N20">
-        <v>19.28188449565321</v>
+        <v>11.6798914326641</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.16601292723828</v>
+        <v>30.0183120744501</v>
       </c>
       <c r="C21">
-        <v>16.88806786250046</v>
+        <v>26.35311808678985</v>
       </c>
       <c r="D21">
-        <v>7.344156336985027</v>
+        <v>4.095318938122634</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.14151804901982</v>
+        <v>44.06560338682606</v>
       </c>
       <c r="G21">
-        <v>3.68041112092626</v>
+        <v>2.027858311181868</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.71384860421147</v>
+        <v>23.28943385567381</v>
       </c>
       <c r="J21">
-        <v>10.47152490207111</v>
+        <v>6.15318615986087</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.8465626423981</v>
+        <v>21.68929217986653</v>
       </c>
       <c r="N21">
-        <v>19.19701526866293</v>
+        <v>11.31630343226553</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.55047765196444</v>
+        <v>31.22486849058404</v>
       </c>
       <c r="C22">
-        <v>17.25363442481862</v>
+        <v>27.4353865622107</v>
       </c>
       <c r="D22">
-        <v>7.344911787592815</v>
+        <v>4.144567091526133</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44.34695430857133</v>
+        <v>45.45438655929058</v>
       </c>
       <c r="G22">
-        <v>3.677598250437745</v>
+        <v>2.018258451259717</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.74435402793238</v>
+        <v>23.82346416997064</v>
       </c>
       <c r="J22">
-        <v>10.45773405751107</v>
+        <v>6.166998851388756</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.98376415900585</v>
+        <v>22.56361532923016</v>
       </c>
       <c r="N22">
-        <v>19.1432447268354</v>
+        <v>11.07987973973845</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.3458075430743</v>
+        <v>30.58413662679351</v>
       </c>
       <c r="C23">
-        <v>17.05915347236055</v>
+        <v>26.86024748717228</v>
       </c>
       <c r="D23">
-        <v>7.344475187422147</v>
+        <v>4.118207055302058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.2364123777302</v>
+        <v>44.71184571954381</v>
       </c>
       <c r="G23">
-        <v>3.67909001790654</v>
+        <v>2.023384128312853</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.72749646836585</v>
+        <v>23.53617256019843</v>
       </c>
       <c r="J23">
-        <v>10.46499274106053</v>
+        <v>6.159254229213332</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.91027412003622</v>
+        <v>22.09928036190255</v>
       </c>
       <c r="N23">
-        <v>19.17178822303286</v>
+        <v>11.20596602593207</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.55985419170499</v>
+        <v>28.08448565183454</v>
       </c>
       <c r="C24">
-        <v>16.30947053100475</v>
+        <v>24.62529173879174</v>
       </c>
       <c r="D24">
-        <v>7.343558035611109</v>
+        <v>4.019931782813175</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.83767157051124</v>
+        <v>41.9270080188702</v>
       </c>
       <c r="G24">
-        <v>3.684949519763277</v>
+        <v>2.042785084681817</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.67630395599055</v>
+        <v>22.49648464172909</v>
       </c>
       <c r="J24">
-        <v>10.49471930413851</v>
+        <v>6.137823402019002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.63791345818767</v>
+        <v>20.28844778878143</v>
       </c>
       <c r="N24">
-        <v>19.28330036068479</v>
+        <v>11.68585729089275</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.69413542188243</v>
+        <v>25.22066178475388</v>
       </c>
       <c r="C25">
-        <v>15.47758894616669</v>
+        <v>22.08177501369432</v>
       </c>
       <c r="D25">
-        <v>7.344158374057313</v>
+        <v>3.916760409856263</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.45141380965337</v>
+        <v>38.97500175880926</v>
       </c>
       <c r="G25">
-        <v>3.69172200710811</v>
+        <v>2.063878168849575</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.64804329510254</v>
+        <v>21.47006317904395</v>
       </c>
       <c r="J25">
-        <v>10.53156079121939</v>
+        <v>6.129921226926317</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.35808709529748</v>
+        <v>18.47290131466584</v>
       </c>
       <c r="N25">
-        <v>19.41090555064747</v>
+        <v>12.2100127906398</v>
       </c>
       <c r="O25">
         <v>0</v>
